--- a/ATIS_Test.xlsx
+++ b/ATIS_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coden\Python\text-to-speech\MTTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB758CB-C977-4C83-84E0-2E60FB518179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EF3174-F396-4F2E-9774-C37F4B870EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28836" yWindow="3156" windowWidth="28020" windowHeight="13548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32664" yWindow="1764" windowWidth="28020" windowHeight="13548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Text</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Volume Boost</t>
   </si>
   <si>
-    <t>Filter Boost</t>
-  </si>
-  <si>
     <t>Noise Boost</t>
   </si>
   <si>
@@ -69,13 +66,25 @@
     <t>Advice on initial  contact, you have information</t>
   </si>
   <si>
-    <t>AdviceOnInitial_3500-3000</t>
-  </si>
-  <si>
-    <t>AdviceOnInitial_3000-3000</t>
-  </si>
-  <si>
     <t>AdviceOnInitial_3000-2000</t>
+  </si>
+  <si>
+    <t>AdviceOnInitial_noise</t>
+  </si>
+  <si>
+    <t>AdviceOnInitial_french</t>
+  </si>
+  <si>
+    <t>&lt;lang xml:lang="en-US"&gt;Advice on initial  contact, you have information&lt;/lang&gt;</t>
+  </si>
+  <si>
+    <t>Nfilter</t>
+  </si>
+  <si>
+    <t>AdviceOnInitial_nfilter1</t>
+  </si>
+  <si>
+    <t>AdviceOnInitial_nfilter2</t>
   </si>
 </sst>
 </file>
@@ -402,22 +411,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
@@ -444,72 +453,85 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>3500</v>
-      </c>
-      <c r="F3">
-        <v>3000</v>
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>3000</v>
-      </c>
-      <c r="F4">
-        <v>3000</v>
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E6">
+        <v>3000</v>
+      </c>
+      <c r="F6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
-        <v>3000</v>
-      </c>
-      <c r="F5">
-        <v>2000</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
